--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130"/>
+    <workbookView windowWidth="25600" windowHeight="10670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -22,22 +22,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>yzl</t>
+    <t>17377777</t>
   </si>
   <si>
-    <t>123</t>
+    <t>17373127</t>
   </si>
   <si>
-    <t>chsy</t>
+    <t>17373281</t>
   </si>
   <si>
-    <t>2314</t>
-  </si>
-  <si>
-    <t>cwec</t>
-  </si>
-  <si>
-    <t>239</t>
+    <t>17777</t>
   </si>
 </sst>
 </file>
@@ -45,14 +39,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,12 +58,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,28 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -111,17 +98,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,64 +113,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,7 +138,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,25 +208,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,156 +389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,47 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,8 +429,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,156 +494,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -681,7 +661,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1053,11 +1033,11 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>17377777</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
@@ -1078,11 +1058,11 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>123456</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="4"/>
@@ -1103,11 +1083,11 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="1">
+        <v>17373281</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
@@ -1128,8 +1108,12 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="1">
+        <v>17777</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
